--- a/Docs/Architecture/Cloud Services Vendor Selection/Cloud Vendor Selection .xlsx
+++ b/Docs/Architecture/Cloud Services Vendor Selection/Cloud Vendor Selection .xlsx
@@ -1824,7 +1824,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,9 +1835,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1859,31 +1855,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1966,9 +1944,31 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2367,17 +2367,17 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="75" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="67" customWidth="1"/>
     <col min="4" max="4" width="2.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.33203125" style="8" customWidth="1"/>
@@ -2387,327 +2387,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="33"/>
-      <c r="C1" s="74"/>
+      <c r="C1" s="66"/>
       <c r="F1" s="33"/>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="E3" s="71" t="s">
+      <c r="C3" s="94"/>
+      <c r="E3" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="H3" s="72" t="s">
+      <c r="F3" s="95"/>
+      <c r="H3" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="96"/>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="95" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="74" t="s">
         <v>238</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="75" t="s">
         <v>232</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" s="32" customFormat="1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="81" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="75" t="s">
         <v>235</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" s="32" customFormat="1" ht="96" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="84" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="77" t="s">
         <v>245</v>
       </c>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" s="32" customFormat="1" ht="114" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="86" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="79" t="s">
         <v>233</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="32" customFormat="1" ht="38" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="81" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="75" t="s">
         <v>241</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" s="32" customFormat="1" ht="134" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="84" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="I11" s="85" t="s">
+      <c r="I11" s="77" t="s">
         <v>236</v>
       </c>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" s="32" customFormat="1" ht="76" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="88" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="80" t="s">
         <v>250</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" s="32" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" s="32" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" s="32" customFormat="1" ht="96" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="84" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="I15" s="85" t="s">
+      <c r="I15" s="77" t="s">
         <v>249</v>
       </c>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" s="32" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" s="32" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="84" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="85" t="s">
+      <c r="I17" s="77" t="s">
         <v>243</v>
       </c>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>253</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -2715,13 +2715,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="70" t="s">
         <v>286</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -2729,13 +2729,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="70" t="s">
         <v>286</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -2743,219 +2743,219 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="E32" s="71" t="s">
+      <c r="C32" s="94"/>
+      <c r="E32" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="H32" s="72" t="s">
+      <c r="F32" s="95"/>
+      <c r="H32" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="72"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:9" ht="96" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>284</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="G33" s="75"/>
-      <c r="H33" s="102" t="s">
+      <c r="G33" s="67"/>
+      <c r="H33" s="97" t="s">
         <v>287</v>
       </c>
-      <c r="I33" s="102"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
     </row>
     <row r="35" spans="1:9" ht="96" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69" t="s">
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="1:9" ht="95" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:9" ht="76" x14ac:dyDescent="0.25">
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55" t="s">
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:9" ht="77" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69" t="s">
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
     </row>
     <row r="39" spans="1:9" ht="77" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="77"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
+      <c r="B40" s="69"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="77"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
+      <c r="B41" s="69"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="77"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
+      <c r="B42" s="69"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="77"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
+      <c r="B43" s="69"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="77"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
+      <c r="B44" s="69"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="77"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
+      <c r="B45" s="69"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="77"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
+      <c r="B46" s="69"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I24" r:id="rId1"/>
@@ -3200,19 +3200,19 @@
       <c r="N18" s="33"/>
     </row>
     <row r="35" spans="1:14" s="32" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="33"/>
     </row>
     <row r="36" spans="1:14" s="32" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
@@ -4862,7 +4862,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4971,16 +4971,16 @@
       <c r="B22" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="102" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4988,25 +4988,25 @@
       <c r="B23" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="102" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5014,25 +5014,25 @@
       <c r="B25" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="102" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5040,10 +5040,10 @@
       <c r="B27" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="41" t="s">

--- a/Docs/Architecture/Cloud Services Vendor Selection/Cloud Vendor Selection .xlsx
+++ b/Docs/Architecture/Cloud Services Vendor Selection/Cloud Vendor Selection .xlsx
@@ -2370,7 +2370,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
